--- a/35歲前的台灣女性只有一半走入婚姻.xlsx
+++ b/35歲前的台灣女性只有一半走入婚姻.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phelps/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phelps\GitHub\Medium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19035" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="73">
   <si>
     <t>男</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -46,16 +46,7 @@
     <t>民國107年</t>
   </si>
   <si>
-    <t>20~29歲</t>
-  </si>
-  <si>
-    <t>30~39歲</t>
-  </si>
-  <si>
     <t>單位：人</t>
-  </si>
-  <si>
-    <t>婚姻狀況─按區域別、年齡別分 - 統計值 (106年 ~ 107年)</t>
   </si>
   <si>
     <t>縣市別</t>
@@ -236,24 +227,56 @@
     <t>總人口</t>
   </si>
   <si>
+    <t>106年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>107年</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>108年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻狀況─按區域別、年齡別分 - 統計值 (106年 ~ 108年)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻狀況─按區域別、年齡別分 - 統計值 (106年 ~ 108年)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全體</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>106年</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>　30-34歲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>　35-39歲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.0\ ;&quot;–&quot;#,##0.0\ ;&quot;— &quot;"/>
     <numFmt numFmtId="177" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,7 +376,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,10 +423,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="千分位[0]" xfId="1" builtinId="6"/>
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,12 +444,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -504,6 +539,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86D1-4E32-9597-85D7BB324375}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -558,7 +598,7 @@
                 <c:formatCode>#,##0.0\ ;"–"#,##0.0\ ;"— "</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26.4</c:v>
@@ -573,6 +613,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86D1-4E32-9597-85D7BB324375}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -641,7 +686,7 @@
         <c:axId val="2146436336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20.0"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1330,16 +1375,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1624,19 +1669,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="Q47" sqref="Q47:T53"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="Q64" sqref="Q64:T70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="13" max="13" width="10.83203125" style="10"/>
-    <col min="14" max="14" width="10.83203125" style="13"/>
+    <col min="13" max="13" width="10.875" style="10"/>
+    <col min="14" max="14" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1655,7 +1700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +1711,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1722,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1688,1193 +1733,1582 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1554007</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1319366</v>
+      </c>
+      <c r="D16" s="5">
+        <v>885905</v>
+      </c>
+      <c r="E16" s="5">
+        <v>662275</v>
+      </c>
+      <c r="F16" s="5">
+        <v>419570</v>
+      </c>
+      <c r="G16" s="5">
+        <v>297594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1496080</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1317418</v>
+      </c>
+      <c r="D17" s="5">
+        <v>894129</v>
+      </c>
+      <c r="E17" s="5">
+        <v>672213</v>
+      </c>
+      <c r="F17" s="5">
+        <v>450124</v>
+      </c>
+      <c r="G17" s="5">
+        <v>308496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1458152</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1332197</v>
+      </c>
+      <c r="D18" s="5">
+        <v>884652</v>
+      </c>
+      <c r="E18" s="5">
+        <v>676215</v>
+      </c>
+      <c r="F18" s="5">
+        <v>482541</v>
+      </c>
+      <c r="G18" s="5">
+        <v>320436</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5">
+        <v>737006</v>
+      </c>
+      <c r="C26" s="5">
+        <v>594426</v>
+      </c>
+      <c r="D26" s="5">
+        <v>369878</v>
+      </c>
+      <c r="E26" s="5">
+        <v>273387</v>
+      </c>
+      <c r="F26" s="5">
+        <v>186956</v>
+      </c>
+      <c r="G26" s="5">
+        <v>140464</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5">
+        <v>708985</v>
+      </c>
+      <c r="C27" s="5">
+        <v>596331</v>
+      </c>
+      <c r="D27" s="5">
+        <v>375714</v>
+      </c>
+      <c r="E27" s="5">
+        <v>276832</v>
+      </c>
+      <c r="F27" s="5">
+        <v>199031</v>
+      </c>
+      <c r="G27" s="5">
+        <v>145588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="5">
+        <v>690596</v>
+      </c>
+      <c r="C28" s="5">
+        <v>604848</v>
+      </c>
+      <c r="D28" s="5">
+        <v>373469</v>
+      </c>
+      <c r="E28" s="5">
+        <v>277864</v>
+      </c>
+      <c r="F28" s="5">
+        <v>211181</v>
+      </c>
+      <c r="G28" s="5">
+        <v>150940</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="5">
+        <v>154749</v>
+      </c>
+      <c r="C32" s="5">
+        <v>154349</v>
+      </c>
+      <c r="D32" s="5">
+        <v>155892</v>
+      </c>
+      <c r="E32" s="5">
+        <v>154185</v>
+      </c>
+      <c r="F32" s="5">
+        <v>156585</v>
+      </c>
+      <c r="G32" s="5">
+        <f>SUM(B32:F32)</f>
+        <v>775760</v>
+      </c>
+      <c r="H32" s="5">
+        <v>737006</v>
+      </c>
+      <c r="I32" s="7">
+        <f>H32/G32</f>
+        <v>0.95004382798803755</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="L32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="11">
+        <v>737006</v>
+      </c>
+      <c r="N32" s="15">
+        <v>775760</v>
+      </c>
+      <c r="O32" s="16">
+        <f>M32/N32</f>
+        <v>0.95004382798803755</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" s="11">
+        <v>737006</v>
+      </c>
+      <c r="S32" s="15">
+        <v>775760</v>
+      </c>
+      <c r="T32" s="16">
+        <f t="shared" ref="T32:T33" si="0">R32/S32</f>
+        <v>0.95004382798803755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="B33" s="5">
-        <v>1554007</v>
+        <v>128169</v>
       </c>
       <c r="C33" s="5">
-        <v>1319366</v>
+        <v>154678</v>
       </c>
       <c r="D33" s="5">
-        <v>885905</v>
+        <v>154260</v>
       </c>
       <c r="E33" s="5">
-        <v>662275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>155846</v>
+      </c>
+      <c r="F33" s="5">
+        <v>154125</v>
+      </c>
+      <c r="G33" s="5">
+        <f>SUM(B33:F33)</f>
+        <v>747078</v>
+      </c>
+      <c r="H33" s="5">
+        <v>708985</v>
+      </c>
+      <c r="I33" s="7">
+        <f>H33/G33</f>
+        <v>0.94901067893847768</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="L33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="11">
+        <v>708985</v>
+      </c>
+      <c r="N33" s="15">
+        <v>747078</v>
+      </c>
+      <c r="O33" s="16">
+        <f>M33/N33</f>
+        <v>0.94901067893847768</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="11">
+        <v>594426</v>
+      </c>
+      <c r="S33" s="15">
+        <v>775391</v>
+      </c>
+      <c r="T33" s="16">
+        <f t="shared" si="0"/>
+        <v>0.76661452093202009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1496080</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1317418</v>
-      </c>
-      <c r="D34" s="5">
-        <v>894129</v>
-      </c>
-      <c r="E34" s="5">
-        <v>672213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
+        <v>727768</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="L34" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="11">
+        <v>690596</v>
+      </c>
+      <c r="N34" s="15">
+        <v>727768</v>
+      </c>
+      <c r="O34" s="16">
+        <f>M34/N34</f>
+        <v>0.94892328324411079</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R34" s="11">
+        <v>369878</v>
+      </c>
+      <c r="S34" s="15">
+        <v>799764</v>
+      </c>
+      <c r="T34" s="16">
+        <f>R34/S34</f>
+        <v>0.46248393276016425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="M35" s="11"/>
+      <c r="N35" s="15"/>
+      <c r="Q35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" s="11">
+        <v>273387</v>
+      </c>
+      <c r="S35" s="15">
+        <v>1030464</v>
+      </c>
+      <c r="T35" s="16">
+        <f>R35/S35</f>
+        <v>0.26530475591578162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="L36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="11">
+        <v>186956</v>
+      </c>
+      <c r="S36" s="15">
+        <v>946420</v>
+      </c>
+      <c r="T36" s="16">
+        <f>R36/S36</f>
+        <v>0.19754020413769785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B37" s="5">
+        <v>152283</v>
+      </c>
+      <c r="C37" s="5">
+        <v>151153</v>
+      </c>
+      <c r="D37" s="5">
+        <v>159011</v>
+      </c>
+      <c r="E37" s="5">
+        <v>148861</v>
+      </c>
+      <c r="F37" s="5">
+        <v>164083</v>
+      </c>
+      <c r="G37" s="5">
+        <f>SUM(B37:F37)</f>
+        <v>775391</v>
+      </c>
+      <c r="H37" s="5">
+        <v>594426</v>
+      </c>
+      <c r="I37" s="7">
+        <f>H37/G37</f>
+        <v>0.76661452093202009</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="11">
+        <v>594426</v>
+      </c>
+      <c r="N37" s="15">
+        <v>775391</v>
+      </c>
+      <c r="O37" s="16">
+        <f>M37/N37</f>
+        <v>0.76661452093202009</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R37" s="11">
+        <v>140464</v>
+      </c>
+      <c r="S37" s="15">
+        <v>920566</v>
+      </c>
+      <c r="T37" s="16">
+        <f>R37/S37</f>
+        <v>0.15258438830024137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B38" s="5">
+        <v>156573</v>
+      </c>
+      <c r="C38" s="5">
+        <v>152251</v>
+      </c>
+      <c r="D38" s="5">
+        <v>151207</v>
+      </c>
+      <c r="E38" s="5">
+        <v>159122</v>
+      </c>
+      <c r="F38" s="5">
+        <v>148979</v>
+      </c>
+      <c r="G38" s="5">
+        <f>SUM(B38:F38)</f>
+        <v>768132</v>
+      </c>
+      <c r="H38" s="5">
+        <v>596331</v>
+      </c>
+      <c r="I38" s="7">
+        <f>H38/G38</f>
+        <v>0.77633922294605617</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="11">
+        <v>596331</v>
+      </c>
+      <c r="N38" s="15">
+        <v>768132</v>
+      </c>
+      <c r="O38" s="16">
+        <f>M38/N38</f>
+        <v>0.77633922294605617</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <v>773555</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="L39" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="11">
+        <v>604848</v>
+      </c>
+      <c r="N39" s="15">
+        <v>773555</v>
+      </c>
+      <c r="O39" s="16">
+        <f>M39/N39</f>
+        <v>0.78190691030372761</v>
+      </c>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="16"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="G40" s="5"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="18.75">
+      <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="B42" s="6">
+        <v>149693</v>
+      </c>
+      <c r="C42" s="5">
+        <v>149693</v>
+      </c>
+      <c r="D42" s="5">
+        <v>148481</v>
+      </c>
+      <c r="E42" s="5">
+        <v>168927</v>
+      </c>
+      <c r="F42" s="5">
+        <v>182970</v>
+      </c>
+      <c r="G42" s="5">
+        <f>SUM(B42:F42)</f>
+        <v>799764</v>
+      </c>
+      <c r="H42" s="5">
+        <v>369878</v>
+      </c>
+      <c r="I42" s="7">
+        <f>H42/G42</f>
+        <v>0.46248393276016425</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="11">
+        <v>369878</v>
+      </c>
+      <c r="N42" s="15">
+        <v>799764</v>
+      </c>
+      <c r="O42" s="16">
+        <f>M42/N42</f>
+        <v>0.46248393276016425</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R42" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="5">
-        <v>737006</v>
-      </c>
-      <c r="C42" s="5">
-        <v>594426</v>
-      </c>
-      <c r="D42" s="5">
-        <v>369878</v>
-      </c>
-      <c r="E42" s="5">
-        <v>273387</v>
-      </c>
-      <c r="F42" s="5">
-        <v>186956</v>
-      </c>
-      <c r="G42" s="5">
-        <v>140464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="B43" s="5">
+        <v>164304</v>
+      </c>
+      <c r="C43" s="5">
+        <v>149955</v>
+      </c>
+      <c r="D43" s="5">
+        <v>148784</v>
+      </c>
+      <c r="E43" s="5">
+        <v>169240</v>
+      </c>
+      <c r="F43" s="5">
+        <v>183225</v>
+      </c>
+      <c r="G43" s="5">
+        <f>SUM(B43:F43)</f>
+        <v>815508</v>
+      </c>
+      <c r="H43" s="5">
+        <v>375714</v>
+      </c>
+      <c r="I43" s="7">
+        <f>H43/G43</f>
+        <v>0.4607116055268618</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="11">
+        <v>375714</v>
+      </c>
+      <c r="N43" s="15">
+        <v>815508</v>
+      </c>
+      <c r="O43" s="16">
+        <f>M43/N43</f>
+        <v>0.4607116055268618</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="R43" s="11">
         <v>708985</v>
       </c>
-      <c r="C43" s="5">
-        <v>596331</v>
-      </c>
-      <c r="D43" s="5">
-        <v>375714</v>
-      </c>
-      <c r="E43" s="5">
-        <v>276832</v>
-      </c>
-      <c r="F43" s="5">
-        <v>199031</v>
-      </c>
-      <c r="G43" s="5">
-        <v>145588</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="S43" s="15">
+        <v>747078</v>
+      </c>
+      <c r="T43" s="16">
+        <f t="shared" ref="T43:T48" si="1">R43/S43</f>
+        <v>0.94901067893847768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-    </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
+        <v>782296</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="L44" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" s="11">
+        <v>373469</v>
+      </c>
+      <c r="N44" s="15">
+        <v>782296</v>
+      </c>
+      <c r="O44" s="16">
+        <f>M44/N44</f>
+        <v>0.47740113716547189</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" s="11">
+        <v>596331</v>
+      </c>
+      <c r="S44" s="15">
+        <v>768132</v>
+      </c>
+      <c r="T44" s="16">
+        <f t="shared" si="1"/>
+        <v>0.77633922294605617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="G45" s="5"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="15"/>
+      <c r="Q45" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R45" s="11">
+        <v>375714</v>
+      </c>
+      <c r="S45" s="15">
+        <v>815508</v>
+      </c>
+      <c r="T45" s="16">
+        <f t="shared" si="1"/>
+        <v>0.4607116055268618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R46" s="11">
+        <v>276832</v>
+      </c>
+      <c r="S46" s="15">
+        <v>1017209</v>
+      </c>
+      <c r="T46" s="16">
+        <f t="shared" si="1"/>
+        <v>0.27214859483154397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B47" s="5">
+        <v>202607</v>
+      </c>
+      <c r="C47" s="5">
+        <v>207571</v>
+      </c>
+      <c r="D47" s="5">
+        <v>206239</v>
+      </c>
+      <c r="E47" s="5">
+        <v>209807</v>
+      </c>
+      <c r="F47" s="5">
+        <v>204240</v>
+      </c>
+      <c r="G47" s="5">
+        <f>SUM(B47:F47)</f>
+        <v>1030464</v>
+      </c>
+      <c r="H47" s="5">
+        <v>273387</v>
+      </c>
+      <c r="I47" s="7">
+        <f>H47/G47</f>
+        <v>0.26530475591578162</v>
+      </c>
       <c r="L47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="R47" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S47" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="T47" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="M47" s="11">
+        <v>273387</v>
+      </c>
+      <c r="N47" s="15">
+        <v>1030464</v>
+      </c>
+      <c r="O47" s="16">
+        <f>M47/N47</f>
+        <v>0.26530475591578162</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R47" s="11">
+        <v>199031</v>
+      </c>
+      <c r="S47" s="15">
+        <v>972195</v>
+      </c>
+      <c r="T47" s="16">
+        <f t="shared" si="1"/>
+        <v>0.20472333225330308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48" s="5">
-        <v>154749</v>
+        <v>190545</v>
       </c>
       <c r="C48" s="5">
-        <v>154349</v>
+        <v>202795</v>
       </c>
       <c r="D48" s="5">
-        <v>155892</v>
+        <v>207753</v>
       </c>
       <c r="E48" s="5">
-        <v>154185</v>
+        <v>206334</v>
       </c>
       <c r="F48" s="5">
-        <v>156585</v>
+        <v>209782</v>
       </c>
       <c r="G48" s="5">
         <f>SUM(B48:F48)</f>
-        <v>775760</v>
+        <v>1017209</v>
       </c>
       <c r="H48" s="5">
-        <v>737006</v>
+        <v>276832</v>
       </c>
       <c r="I48" s="7">
         <f>H48/G48</f>
-        <v>0.95004382798803755</v>
-      </c>
-      <c r="J48" s="5"/>
+        <v>0.27214859483154397</v>
+      </c>
       <c r="L48" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M48" s="11">
-        <v>737006</v>
+        <v>276832</v>
       </c>
       <c r="N48" s="15">
-        <v>775760</v>
+        <v>1017209</v>
       </c>
       <c r="O48" s="16">
         <f>M48/N48</f>
-        <v>0.95004382798803755</v>
+        <v>0.27214859483154397</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R48" s="11">
-        <v>737006</v>
+        <v>145588</v>
       </c>
       <c r="S48" s="15">
-        <v>775760</v>
+        <v>912359</v>
       </c>
       <c r="T48" s="16">
-        <f>R48/S48</f>
-        <v>0.95004382798803755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.15957315048133466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="5">
-        <v>128169</v>
-      </c>
-      <c r="C49" s="5">
-        <v>154678</v>
-      </c>
-      <c r="D49" s="5">
-        <v>154260</v>
-      </c>
-      <c r="E49" s="5">
-        <v>155846</v>
-      </c>
-      <c r="F49" s="5">
-        <v>154125</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="5">
-        <f>SUM(B49:F49)</f>
-        <v>747078</v>
-      </c>
-      <c r="H49" s="5">
-        <v>708985</v>
-      </c>
-      <c r="I49" s="7">
-        <f>H49/G49</f>
-        <v>0.94901067893847768</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="L49" s="9" t="s">
-        <v>21</v>
+        <v>991358</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="L49" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="M49" s="11">
-        <v>708985</v>
+        <v>277864</v>
       </c>
       <c r="N49" s="15">
-        <v>747078</v>
+        <v>991358</v>
       </c>
       <c r="O49" s="16">
         <f>M49/N49</f>
-        <v>0.94901067893847768</v>
-      </c>
-      <c r="Q49" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R49" s="11">
-        <v>594426</v>
-      </c>
-      <c r="S49" s="15">
-        <v>775391</v>
-      </c>
-      <c r="T49" s="16">
-        <f>R49/S49</f>
-        <v>0.76661452093202009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.15">
+        <v>0.28028623363103944</v>
+      </c>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="16"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="G50" s="5"/>
       <c r="M50" s="11"/>
       <c r="N50" s="15"/>
-      <c r="Q50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R50" s="11">
-        <v>369878</v>
-      </c>
-      <c r="S50" s="15">
-        <v>799764</v>
-      </c>
-      <c r="T50" s="16">
-        <f>R50/S50</f>
-        <v>0.46248393276016425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I51" s="3"/>
+        <v>40</v>
+      </c>
       <c r="L51" s="9" t="s">
         <v>59</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q51" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R51" s="11">
-        <v>273387</v>
-      </c>
-      <c r="S51" s="15">
-        <v>1030464</v>
-      </c>
-      <c r="T51" s="16">
-        <f>R51/S51</f>
-        <v>0.26530475591578162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52" s="5">
-        <v>152283</v>
+        <v>195017</v>
       </c>
       <c r="C52" s="5">
-        <v>151153</v>
+        <v>210419</v>
       </c>
       <c r="D52" s="5">
-        <v>159011</v>
+        <v>183171</v>
       </c>
       <c r="E52" s="5">
-        <v>148861</v>
+        <v>179567</v>
       </c>
       <c r="F52" s="5">
-        <v>164083</v>
-      </c>
-      <c r="G52" s="4">
+        <v>178246</v>
+      </c>
+      <c r="G52" s="5">
         <f>SUM(B52:F52)</f>
-        <v>775391</v>
+        <v>946420</v>
       </c>
       <c r="H52" s="5">
-        <v>594426</v>
+        <v>186956</v>
       </c>
       <c r="I52" s="7">
         <f>H52/G52</f>
-        <v>0.76661452093202009</v>
+        <v>0.19754020413769785</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M52" s="11">
-        <v>594426</v>
+        <v>186956</v>
       </c>
       <c r="N52" s="15">
-        <v>775391</v>
+        <v>946420</v>
       </c>
       <c r="O52" s="16">
         <f>M52/N52</f>
-        <v>0.76661452093202009</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R52" s="11">
-        <v>186956</v>
-      </c>
-      <c r="S52" s="15">
-        <v>946420</v>
-      </c>
-      <c r="T52" s="16">
-        <f>R52/S52</f>
         <v>0.19754020413769785</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B53" s="5">
-        <v>156573</v>
+        <v>204227</v>
       </c>
       <c r="C53" s="5">
-        <v>152251</v>
+        <v>194978</v>
       </c>
       <c r="D53" s="5">
-        <v>151207</v>
+        <v>210373</v>
       </c>
       <c r="E53" s="5">
-        <v>159122</v>
+        <v>183129</v>
       </c>
       <c r="F53" s="5">
-        <v>148979</v>
-      </c>
-      <c r="G53" s="4">
+        <v>179488</v>
+      </c>
+      <c r="G53" s="5">
         <f>SUM(B53:F53)</f>
-        <v>768132</v>
+        <v>972195</v>
       </c>
       <c r="H53" s="5">
-        <v>596331</v>
+        <v>199031</v>
       </c>
       <c r="I53" s="7">
         <f>H53/G53</f>
-        <v>0.77633922294605617</v>
+        <v>0.20472333225330308</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M53" s="11">
-        <v>596331</v>
+        <v>199031</v>
       </c>
       <c r="N53" s="15">
-        <v>768132</v>
+        <v>972195</v>
       </c>
       <c r="O53" s="16">
         <f>M53/N53</f>
-        <v>0.77633922294605617</v>
-      </c>
-      <c r="Q53" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="11">
+        <v>0.20472333225330308</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T53" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5">
+        <v>1002276</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="7"/>
+      <c r="L54" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M54" s="11">
+        <v>211181</v>
+      </c>
+      <c r="N54" s="15">
+        <v>1002276</v>
+      </c>
+      <c r="O54" s="16">
+        <f>M54/N54</f>
+        <v>0.21070144351456085</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R54" s="11">
+        <v>690596</v>
+      </c>
+      <c r="S54" s="15">
+        <v>727768</v>
+      </c>
+      <c r="T54" s="16">
+        <f t="shared" ref="T54:T59" si="2">R54/S54</f>
+        <v>0.94892328324411079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="G55" s="5"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="15"/>
+      <c r="Q55" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" s="11">
+        <v>604848</v>
+      </c>
+      <c r="S55" s="15">
+        <v>773555</v>
+      </c>
+      <c r="T55" s="16">
+        <f t="shared" si="2"/>
+        <v>0.78190691030372761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="R56" s="11">
+        <v>373469</v>
+      </c>
+      <c r="S56" s="15">
+        <v>782296</v>
+      </c>
+      <c r="T56" s="16">
+        <f t="shared" si="2"/>
+        <v>0.47740113716547189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="5">
+        <v>178808</v>
+      </c>
+      <c r="C57" s="5">
+        <v>182649</v>
+      </c>
+      <c r="D57" s="5">
+        <v>186810</v>
+      </c>
+      <c r="E57" s="5">
+        <v>186724</v>
+      </c>
+      <c r="F57" s="5">
+        <v>185575</v>
+      </c>
+      <c r="G57" s="5">
+        <f>SUM(B57:F57)</f>
+        <v>920566</v>
+      </c>
+      <c r="H57" s="5">
         <v>140464</v>
-      </c>
-      <c r="S53" s="15">
-        <v>920566</v>
-      </c>
-      <c r="T53" s="16">
-        <f>R53/S53</f>
-        <v>0.15258438830024137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="M54" s="11"/>
-      <c r="N54" s="15"/>
-    </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N55" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="21" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="6">
-        <v>149693</v>
-      </c>
-      <c r="C56" s="5">
-        <v>149693</v>
-      </c>
-      <c r="D56" s="5">
-        <v>148481</v>
-      </c>
-      <c r="E56" s="5">
-        <v>168927</v>
-      </c>
-      <c r="F56" s="5">
-        <v>182970</v>
-      </c>
-      <c r="G56" s="5">
-        <f>SUM(B56:F56)</f>
-        <v>799764</v>
-      </c>
-      <c r="H56" s="5">
-        <v>369878</v>
-      </c>
-      <c r="I56" s="7">
-        <f>H56/G56</f>
-        <v>0.46248393276016425</v>
-      </c>
-      <c r="L56" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" s="11">
-        <v>369878</v>
-      </c>
-      <c r="N56" s="15">
-        <v>799764</v>
-      </c>
-      <c r="O56" s="16">
-        <f>M56/N56</f>
-        <v>0.46248393276016425</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="5">
-        <v>164304</v>
-      </c>
-      <c r="C57" s="5">
-        <v>149955</v>
-      </c>
-      <c r="D57" s="5">
-        <v>148784</v>
-      </c>
-      <c r="E57" s="5">
-        <v>169240</v>
-      </c>
-      <c r="F57" s="5">
-        <v>183225</v>
-      </c>
-      <c r="G57" s="4">
-        <f>SUM(B57:F57)</f>
-        <v>815508</v>
-      </c>
-      <c r="H57" s="5">
-        <v>375714</v>
       </c>
       <c r="I57" s="7">
         <f>H57/G57</f>
-        <v>0.4607116055268618</v>
+        <v>0.15258438830024137</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M57" s="11">
-        <v>375714</v>
+        <v>140464</v>
       </c>
       <c r="N57" s="15">
-        <v>815508</v>
+        <v>920566</v>
       </c>
       <c r="O57" s="16">
         <f>M57/N57</f>
+        <v>0.15258438830024137</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="R57" s="11">
+        <v>277864</v>
+      </c>
+      <c r="S57" s="15">
+        <v>991358</v>
+      </c>
+      <c r="T57" s="16">
+        <f t="shared" si="2"/>
+        <v>0.28028623363103944</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="5">
+        <v>178145</v>
+      </c>
+      <c r="C58" s="5">
+        <v>178668</v>
+      </c>
+      <c r="D58" s="5">
+        <v>182516</v>
+      </c>
+      <c r="E58" s="5">
+        <v>186560</v>
+      </c>
+      <c r="F58" s="5">
+        <v>186470</v>
+      </c>
+      <c r="G58" s="5">
+        <f>SUM(B58:F58)</f>
+        <v>912359</v>
+      </c>
+      <c r="H58" s="5">
+        <v>145588</v>
+      </c>
+      <c r="I58" s="7">
+        <f>H58/G58</f>
+        <v>0.15957315048133466</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="11">
+        <v>145588</v>
+      </c>
+      <c r="N58" s="15">
+        <v>912359</v>
+      </c>
+      <c r="O58" s="16">
+        <f>M58/N58</f>
+        <v>0.15957315048133466</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R58" s="11">
+        <v>211181</v>
+      </c>
+      <c r="S58" s="15">
+        <v>1002276</v>
+      </c>
+      <c r="T58" s="16">
+        <f t="shared" si="2"/>
+        <v>0.21070144351456085</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="5">
+        <v>904621</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M59" s="11">
+        <v>150940</v>
+      </c>
+      <c r="N59" s="15">
+        <v>904621</v>
+      </c>
+      <c r="O59" s="16">
+        <f>M59/N59</f>
+        <v>0.16685440643098048</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="R59" s="11">
+        <v>150940</v>
+      </c>
+      <c r="S59" s="15">
+        <v>904621</v>
+      </c>
+      <c r="T59" s="16">
+        <f t="shared" si="2"/>
+        <v>0.16685440643098048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="N62" s="18"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="R64" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="S64" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="T64" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="17:20">
+      <c r="Q65" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R65" s="16">
+        <v>0.95004382798803755</v>
+      </c>
+      <c r="S65" s="16">
+        <v>0.94901067893847768</v>
+      </c>
+      <c r="T65" s="16">
+        <v>0.94892328324411079</v>
+      </c>
+    </row>
+    <row r="66" spans="17:20">
+      <c r="Q66" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R66" s="16">
+        <v>0.76661452093202009</v>
+      </c>
+      <c r="S66" s="16">
+        <v>0.77633922294605617</v>
+      </c>
+      <c r="T66" s="16">
+        <v>0.78190691030372761</v>
+      </c>
+    </row>
+    <row r="67" spans="17:20">
+      <c r="Q67" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="R67" s="16">
+        <v>0.46248393276016425</v>
+      </c>
+      <c r="S67" s="16">
         <v>0.4607116055268618</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="M58" s="11"/>
-      <c r="N58" s="15"/>
-    </row>
-    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q59" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="R59" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S59" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="T59" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="5">
-        <v>202607</v>
-      </c>
-      <c r="C60" s="5">
-        <v>207571</v>
-      </c>
-      <c r="D60" s="5">
-        <v>206239</v>
-      </c>
-      <c r="E60" s="5">
-        <v>209807</v>
-      </c>
-      <c r="F60" s="5">
-        <v>204240</v>
-      </c>
-      <c r="G60" s="4">
-        <f>SUM(B60:F60)</f>
-        <v>1030464</v>
-      </c>
-      <c r="H60" s="5">
-        <v>273387</v>
-      </c>
-      <c r="I60" s="7">
-        <f>H60/G60</f>
+      <c r="T67" s="16">
+        <v>0.47740113716547189</v>
+      </c>
+    </row>
+    <row r="68" spans="17:20">
+      <c r="Q68" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="R68" s="16">
         <v>0.26530475591578162</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" s="11">
-        <v>273387</v>
-      </c>
-      <c r="N60" s="15">
-        <v>1030464</v>
-      </c>
-      <c r="O60" s="16">
-        <f>M60/N60</f>
-        <v>0.26530475591578162</v>
-      </c>
-      <c r="Q60" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R60" s="11">
-        <v>708985</v>
-      </c>
-      <c r="S60" s="15">
-        <v>747078</v>
-      </c>
-      <c r="T60" s="16">
-        <f>R60/S60</f>
-        <v>0.94901067893847768</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="5">
-        <v>190545</v>
-      </c>
-      <c r="C61" s="5">
-        <v>202795</v>
-      </c>
-      <c r="D61" s="5">
-        <v>207753</v>
-      </c>
-      <c r="E61" s="5">
-        <v>206334</v>
-      </c>
-      <c r="F61" s="5">
-        <v>209782</v>
-      </c>
-      <c r="G61" s="4">
-        <f>SUM(B61:F61)</f>
-        <v>1017209</v>
-      </c>
-      <c r="H61" s="5">
-        <v>276832</v>
-      </c>
-      <c r="I61" s="7">
-        <f>H61/G61</f>
+      <c r="S68" s="16">
         <v>0.27214859483154397</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="11">
-        <v>276832</v>
-      </c>
-      <c r="N61" s="15">
-        <v>1017209</v>
-      </c>
-      <c r="O61" s="16">
-        <f>M61/N61</f>
-        <v>0.27214859483154397</v>
-      </c>
-      <c r="Q61" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R61" s="11">
-        <v>596331</v>
-      </c>
-      <c r="S61" s="15">
-        <v>768132</v>
-      </c>
-      <c r="T61" s="16">
-        <f>R61/S61</f>
-        <v>0.77633922294605617</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="M62" s="11"/>
-      <c r="N62" s="15"/>
-      <c r="Q62" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R62" s="11">
-        <v>375714</v>
-      </c>
-      <c r="S62" s="15">
-        <v>815508</v>
-      </c>
-      <c r="T62" s="16">
-        <f>R62/S62</f>
-        <v>0.4607116055268618</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L63" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N63" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R63" s="11">
-        <v>276832</v>
-      </c>
-      <c r="S63" s="15">
-        <v>1017209</v>
-      </c>
-      <c r="T63" s="16">
-        <f>R63/S63</f>
-        <v>0.27214859483154397</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="5">
-        <v>195017</v>
-      </c>
-      <c r="C64" s="5">
-        <v>210419</v>
-      </c>
-      <c r="D64" s="5">
-        <v>183171</v>
-      </c>
-      <c r="E64" s="5">
-        <v>179567</v>
-      </c>
-      <c r="F64" s="5">
-        <v>178246</v>
-      </c>
-      <c r="G64" s="4">
-        <f>SUM(B64:F64)</f>
-        <v>946420</v>
-      </c>
-      <c r="H64" s="5">
-        <v>186956</v>
-      </c>
-      <c r="I64" s="7">
-        <f>H64/G64</f>
+      <c r="T68" s="16">
+        <v>0.28028623363103944</v>
+      </c>
+    </row>
+    <row r="69" spans="17:20">
+      <c r="Q69" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="R69" s="16">
         <v>0.19754020413769785</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" s="11">
-        <v>186956</v>
-      </c>
-      <c r="N64" s="15">
-        <v>946420</v>
-      </c>
-      <c r="O64" s="16">
-        <f>M64/N64</f>
-        <v>0.19754020413769785</v>
-      </c>
-      <c r="Q64" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="R64" s="11">
-        <v>199031</v>
-      </c>
-      <c r="S64" s="15">
-        <v>972195</v>
-      </c>
-      <c r="T64" s="16">
-        <f>R64/S64</f>
+      <c r="S69" s="16">
         <v>0.20472333225330308</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="5">
-        <v>204227</v>
-      </c>
-      <c r="C65" s="5">
-        <v>194978</v>
-      </c>
-      <c r="D65" s="5">
-        <v>210373</v>
-      </c>
-      <c r="E65" s="5">
-        <v>183129</v>
-      </c>
-      <c r="F65" s="5">
-        <v>179488</v>
-      </c>
-      <c r="G65" s="4">
-        <f>SUM(B65:F65)</f>
-        <v>972195</v>
-      </c>
-      <c r="H65" s="5">
-        <v>199031</v>
-      </c>
-      <c r="I65" s="7">
-        <f>H65/G65</f>
-        <v>0.20472333225330308</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="11">
-        <v>199031</v>
-      </c>
-      <c r="N65" s="15">
-        <v>972195</v>
-      </c>
-      <c r="O65" s="16">
-        <f>M65/N65</f>
-        <v>0.20472333225330308</v>
-      </c>
-      <c r="Q65" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R65" s="11">
-        <v>145588</v>
-      </c>
-      <c r="S65" s="15">
-        <v>912359</v>
-      </c>
-      <c r="T65" s="16">
-        <f>R65/S65</f>
+      <c r="T69" s="16">
+        <v>0.21070144351456085</v>
+      </c>
+    </row>
+    <row r="70" spans="17:20">
+      <c r="Q70" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="R70" s="16">
+        <v>0.15258438830024137</v>
+      </c>
+      <c r="S70" s="16">
         <v>0.15957315048133466</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.15">
-      <c r="M66" s="11"/>
-      <c r="N66" s="15"/>
-    </row>
-    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N67" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="5">
-        <v>178808</v>
-      </c>
-      <c r="C68" s="5">
-        <v>182649</v>
-      </c>
-      <c r="D68" s="5">
-        <v>186810</v>
-      </c>
-      <c r="E68" s="5">
-        <v>186724</v>
-      </c>
-      <c r="F68" s="5">
-        <v>185575</v>
-      </c>
-      <c r="G68" s="5">
-        <f>SUM(B68:F68)</f>
-        <v>920566</v>
-      </c>
-      <c r="H68" s="5">
-        <v>140464</v>
-      </c>
-      <c r="I68" s="7">
-        <f>H68/G68</f>
-        <v>0.15258438830024137</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" s="11">
-        <v>140464</v>
-      </c>
-      <c r="N68" s="15">
-        <v>920566</v>
-      </c>
-      <c r="O68" s="16">
-        <f>M68/N68</f>
-        <v>0.15258438830024137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="5">
-        <v>178145</v>
-      </c>
-      <c r="C69" s="5">
-        <v>178668</v>
-      </c>
-      <c r="D69" s="5">
-        <v>182516</v>
-      </c>
-      <c r="E69" s="5">
-        <v>186560</v>
-      </c>
-      <c r="F69" s="5">
-        <v>186470</v>
-      </c>
-      <c r="G69" s="5">
-        <f>SUM(B69:F69)</f>
-        <v>912359</v>
-      </c>
-      <c r="H69" s="5">
-        <v>145588</v>
-      </c>
-      <c r="I69" s="7">
-        <f>H69/G69</f>
-        <v>0.15957315048133466</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="11">
-        <v>145588</v>
-      </c>
-      <c r="N69" s="15">
-        <v>912359</v>
-      </c>
-      <c r="O69" s="16">
-        <f>M69/N69</f>
-        <v>0.15957315048133466</v>
+      <c r="T70" s="16">
+        <v>0.16685440643098048</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R30:T30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>